--- a/data/pca/factorExposure/factorExposure_2014-10-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-10-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.02224834475474341</v>
+        <v>-0.01792696988307834</v>
       </c>
       <c r="C2">
-        <v>-0.09559808911690484</v>
+        <v>0.0793197477581325</v>
       </c>
       <c r="D2">
-        <v>0.03614537232617958</v>
+        <v>-0.01953916306718402</v>
       </c>
       <c r="E2">
-        <v>-0.1662144521505103</v>
+        <v>-0.09978469807700269</v>
       </c>
       <c r="F2">
-        <v>0.2042069334916639</v>
+        <v>-0.1254519721567809</v>
       </c>
       <c r="G2">
-        <v>-0.08874839726623043</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.061752955951558</v>
+      </c>
+      <c r="H2">
+        <v>-0.03640004783063512</v>
+      </c>
+      <c r="I2">
+        <v>0.03163737607737752</v>
+      </c>
+      <c r="J2">
+        <v>-0.1822293133104738</v>
+      </c>
+      <c r="K2">
+        <v>-0.105397410954642</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.05083547298602235</v>
+        <v>-0.02343467722851275</v>
       </c>
       <c r="C4">
-        <v>-0.1576516307032078</v>
+        <v>0.1545501751848915</v>
       </c>
       <c r="D4">
-        <v>-0.01516332799564944</v>
+        <v>-0.05219413615656994</v>
       </c>
       <c r="E4">
-        <v>-0.07984960191517598</v>
+        <v>0.01244989955336056</v>
       </c>
       <c r="F4">
-        <v>-0.0473874138456935</v>
+        <v>-0.09255741856138186</v>
       </c>
       <c r="G4">
-        <v>-0.02390464733909839</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.02670368295956124</v>
+      </c>
+      <c r="H4">
+        <v>-0.1024362352955536</v>
+      </c>
+      <c r="I4">
+        <v>-0.009196958182572445</v>
+      </c>
+      <c r="J4">
+        <v>-0.1520605483659593</v>
+      </c>
+      <c r="K4">
+        <v>0.06886152136321989</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.03963782450264097</v>
+        <v>-0.04116626282308383</v>
       </c>
       <c r="C6">
-        <v>-0.06504836548255016</v>
+        <v>0.06925278815956892</v>
       </c>
       <c r="D6">
-        <v>-0.0204512874651449</v>
+        <v>-0.02145174290601447</v>
       </c>
       <c r="E6">
-        <v>-0.1184751420964903</v>
+        <v>-0.06522553855207648</v>
       </c>
       <c r="F6">
-        <v>0.006040377880048848</v>
+        <v>-0.07764912978083065</v>
       </c>
       <c r="G6">
-        <v>0.01713052396663237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.05353737138265764</v>
+      </c>
+      <c r="H6">
+        <v>-0.04101713763652449</v>
+      </c>
+      <c r="I6">
+        <v>0.06078221435135504</v>
+      </c>
+      <c r="J6">
+        <v>-0.0507156062281727</v>
+      </c>
+      <c r="K6">
+        <v>-0.04257350212585758</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.007404686407204025</v>
+        <v>-0.01328087466352133</v>
       </c>
       <c r="C7">
-        <v>-0.05112445575063537</v>
+        <v>0.06791208624419232</v>
       </c>
       <c r="D7">
-        <v>-0.006922496980459892</v>
+        <v>-0.01523496339862884</v>
       </c>
       <c r="E7">
-        <v>-0.07370649065313403</v>
+        <v>0.01185272990145383</v>
       </c>
       <c r="F7">
-        <v>-0.01499295250217397</v>
+        <v>-0.0347831272089503</v>
       </c>
       <c r="G7">
-        <v>-0.03207691571197534</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.05862785629817967</v>
+      </c>
+      <c r="H7">
+        <v>-0.09334042970537251</v>
+      </c>
+      <c r="I7">
+        <v>0.01846538772048959</v>
+      </c>
+      <c r="J7">
+        <v>-0.04823868606396371</v>
+      </c>
+      <c r="K7">
+        <v>-0.003379073182817987</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.008310556592136037</v>
+        <v>0.0009208673425999944</v>
       </c>
       <c r="C8">
-        <v>-0.07311107687256412</v>
+        <v>0.06997156886574107</v>
       </c>
       <c r="D8">
-        <v>-0.01188334140509104</v>
+        <v>-0.03835630466320893</v>
       </c>
       <c r="E8">
-        <v>-0.08857206577525339</v>
+        <v>-0.01849522578983113</v>
       </c>
       <c r="F8">
-        <v>0.02175085440707768</v>
+        <v>-0.05940664740450231</v>
       </c>
       <c r="G8">
-        <v>-0.065293560192608</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.0310405705493848</v>
+      </c>
+      <c r="H8">
+        <v>-0.04906784664790911</v>
+      </c>
+      <c r="I8">
+        <v>-0.003986845140437205</v>
+      </c>
+      <c r="J8">
+        <v>-0.01118807172035706</v>
+      </c>
+      <c r="K8">
+        <v>0.01128249164725617</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.03049146128681891</v>
+        <v>-0.01561285345341128</v>
       </c>
       <c r="C9">
-        <v>-0.1317244390848967</v>
+        <v>0.1173827995500492</v>
       </c>
       <c r="D9">
-        <v>-0.01548109082115069</v>
+        <v>-0.03457883051278599</v>
       </c>
       <c r="E9">
-        <v>-0.05964669902089361</v>
+        <v>-0.00561283844563743</v>
       </c>
       <c r="F9">
-        <v>-0.02976828787895228</v>
+        <v>-0.04364686259735692</v>
       </c>
       <c r="G9">
-        <v>0.01774121243039768</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.008299663618476359</v>
+      </c>
+      <c r="H9">
+        <v>-0.09228224192198439</v>
+      </c>
+      <c r="I9">
+        <v>0.02505654715667322</v>
+      </c>
+      <c r="J9">
+        <v>-0.06827631533534725</v>
+      </c>
+      <c r="K9">
+        <v>0.05583491043638217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.2675351557002341</v>
+        <v>-0.2499535014178742</v>
       </c>
       <c r="C10">
-        <v>0.1368070211938663</v>
+        <v>-0.1012913332785211</v>
       </c>
       <c r="D10">
-        <v>0.02228738736153804</v>
+        <v>0.002784671430420162</v>
       </c>
       <c r="E10">
-        <v>0.02352481418986224</v>
+        <v>-0.01103987053047614</v>
       </c>
       <c r="F10">
-        <v>-0.03399590718392723</v>
+        <v>0.006201836753066929</v>
       </c>
       <c r="G10">
-        <v>0.0190824480495067</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.01988762718154277</v>
+      </c>
+      <c r="H10">
+        <v>-0.06447330124182481</v>
+      </c>
+      <c r="I10">
+        <v>-0.1618020471785237</v>
+      </c>
+      <c r="J10">
+        <v>0.08368046264903224</v>
+      </c>
+      <c r="K10">
+        <v>0.03810801516307212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.01798684618295014</v>
+        <v>-0.01693473359783182</v>
       </c>
       <c r="C11">
-        <v>-0.06505570420952848</v>
+        <v>0.08183427869231687</v>
       </c>
       <c r="D11">
-        <v>-0.01306786389843472</v>
+        <v>-0.02814523699902133</v>
       </c>
       <c r="E11">
-        <v>-0.03115430020207978</v>
+        <v>0.008748987750704984</v>
       </c>
       <c r="F11">
-        <v>-0.05896597908410703</v>
+        <v>-0.006572477202796339</v>
       </c>
       <c r="G11">
-        <v>0.03094291348805795</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.02569549989175533</v>
+      </c>
+      <c r="H11">
+        <v>-0.03240800523259314</v>
+      </c>
+      <c r="I11">
+        <v>0.007891391724155471</v>
+      </c>
+      <c r="J11">
+        <v>0.03197818274474646</v>
+      </c>
+      <c r="K11">
+        <v>0.04206108379961864</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.01530499975094924</v>
+        <v>-0.01711147325775518</v>
       </c>
       <c r="C12">
-        <v>-0.06297021194365096</v>
+        <v>0.06403934832921589</v>
       </c>
       <c r="D12">
-        <v>-0.01483053577142025</v>
+        <v>-0.01660803736263031</v>
       </c>
       <c r="E12">
-        <v>-0.02478500196575511</v>
+        <v>-0.01701345369733778</v>
       </c>
       <c r="F12">
-        <v>-0.0320237709661613</v>
+        <v>0.002912606491130154</v>
       </c>
       <c r="G12">
-        <v>0.06338918536113623</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.03352432646676564</v>
+      </c>
+      <c r="H12">
+        <v>-0.03345795804970941</v>
+      </c>
+      <c r="I12">
+        <v>0.01074113344717909</v>
+      </c>
+      <c r="J12">
+        <v>0.01281454030589994</v>
+      </c>
+      <c r="K12">
+        <v>0.04568943850163431</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.0282184551059407</v>
+        <v>-0.007311105359348142</v>
       </c>
       <c r="C13">
-        <v>-0.100652510765084</v>
+        <v>0.1143318127607596</v>
       </c>
       <c r="D13">
-        <v>-0.02855433980295509</v>
+        <v>-0.0295919452827805</v>
       </c>
       <c r="E13">
-        <v>-0.1415025029580492</v>
+        <v>-0.1442305215977969</v>
       </c>
       <c r="F13">
-        <v>-0.04365834797148594</v>
+        <v>-0.09588511434800077</v>
       </c>
       <c r="G13">
-        <v>0.1090172728396067</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.09702737501471333</v>
+      </c>
+      <c r="H13">
+        <v>-0.09741854079427273</v>
+      </c>
+      <c r="I13">
+        <v>-0.1891431387437292</v>
+      </c>
+      <c r="J13">
+        <v>0.1607132241400586</v>
+      </c>
+      <c r="K13">
+        <v>-0.06029481291376201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.01840948509042362</v>
+        <v>-0.01852877973887813</v>
       </c>
       <c r="C14">
-        <v>-0.05626120541429138</v>
+        <v>0.0743413220268577</v>
       </c>
       <c r="D14">
-        <v>-0.005568075367677536</v>
+        <v>-0.03666915993978543</v>
       </c>
       <c r="E14">
-        <v>-0.06502491683900133</v>
+        <v>-0.0559363042115997</v>
       </c>
       <c r="F14">
-        <v>-0.005551512189864876</v>
+        <v>-0.03857370576757289</v>
       </c>
       <c r="G14">
-        <v>0.05042549123178328</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.08734333236831683</v>
+      </c>
+      <c r="H14">
+        <v>-0.2086670544572574</v>
+      </c>
+      <c r="I14">
+        <v>0.03378422674930317</v>
+      </c>
+      <c r="J14">
+        <v>0.1094838039762452</v>
+      </c>
+      <c r="K14">
+        <v>-0.1390746733265132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.0104701318632302</v>
+        <v>-0.00138271708116482</v>
       </c>
       <c r="C15">
-        <v>-0.07920690421148457</v>
+        <v>0.07831527644826125</v>
       </c>
       <c r="D15">
-        <v>-0.009078508835573517</v>
+        <v>-0.02618406065305381</v>
       </c>
       <c r="E15">
-        <v>-0.1132974582559669</v>
+        <v>-0.009027609698091596</v>
       </c>
       <c r="F15">
-        <v>-0.01618094681427559</v>
+        <v>-0.05294558729969161</v>
       </c>
       <c r="G15">
-        <v>0.001162013439235349</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.04802810141247953</v>
+      </c>
+      <c r="H15">
+        <v>-0.07151941279168245</v>
+      </c>
+      <c r="I15">
+        <v>0.02482889444810031</v>
+      </c>
+      <c r="J15">
+        <v>0.04950232526121067</v>
+      </c>
+      <c r="K15">
+        <v>-0.0104385705407034</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.02002218684697784</v>
+        <v>-0.01651768588738961</v>
       </c>
       <c r="C16">
-        <v>-0.06211885324176401</v>
+        <v>0.06825182291515859</v>
       </c>
       <c r="D16">
-        <v>-0.004342256434469772</v>
+        <v>-0.01945804264691964</v>
       </c>
       <c r="E16">
-        <v>-0.03059349715867725</v>
+        <v>0.002112642673930415</v>
       </c>
       <c r="F16">
-        <v>-0.03456494404607269</v>
+        <v>-0.007144770972821679</v>
       </c>
       <c r="G16">
-        <v>0.03534828387983495</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.02246881519515345</v>
+      </c>
+      <c r="H16">
+        <v>-0.02607970030039469</v>
+      </c>
+      <c r="I16">
+        <v>0.01247552516986608</v>
+      </c>
+      <c r="J16">
+        <v>0.01404035366395855</v>
+      </c>
+      <c r="K16">
+        <v>0.02909803115814306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.02071257850408583</v>
+        <v>-0.0134351139047966</v>
       </c>
       <c r="C20">
-        <v>-0.07679797686942871</v>
+        <v>0.08523679277246421</v>
       </c>
       <c r="D20">
-        <v>0.007572373755972669</v>
+        <v>-0.01318379752683031</v>
       </c>
       <c r="E20">
-        <v>-0.06774317181424858</v>
+        <v>0.01872789684856252</v>
       </c>
       <c r="F20">
-        <v>-0.0714603063067689</v>
+        <v>-0.02953303871758493</v>
       </c>
       <c r="G20">
-        <v>0.04136749349998985</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.05995169963728621</v>
+      </c>
+      <c r="H20">
+        <v>-0.07044797399182993</v>
+      </c>
+      <c r="I20">
+        <v>0.02272372609016156</v>
+      </c>
+      <c r="J20">
+        <v>-0.01330131193188624</v>
+      </c>
+      <c r="K20">
+        <v>0.01471079312471839</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.01927949376031621</v>
+        <v>-0.01525220596462544</v>
       </c>
       <c r="C21">
-        <v>-0.1027729844780512</v>
+        <v>0.08762425073874183</v>
       </c>
       <c r="D21">
-        <v>0.03238352003519865</v>
+        <v>-0.01876794976422281</v>
       </c>
       <c r="E21">
-        <v>-0.04193203120128208</v>
+        <v>-0.08790076484996655</v>
       </c>
       <c r="F21">
-        <v>0.03270376362486774</v>
+        <v>-0.00823066626257796</v>
       </c>
       <c r="G21">
-        <v>0.04397903136146979</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.003041362230328482</v>
+      </c>
+      <c r="H21">
+        <v>-0.1506616509778031</v>
+      </c>
+      <c r="I21">
+        <v>-0.03267724967999502</v>
+      </c>
+      <c r="J21">
+        <v>0.04389925721893763</v>
+      </c>
+      <c r="K21">
+        <v>0.01802222855293502</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.05259839801951476</v>
+        <v>-0.00703646589872023</v>
       </c>
       <c r="C22">
-        <v>-0.1344633147455612</v>
+        <v>0.1498490688243981</v>
       </c>
       <c r="D22">
-        <v>0.1129765323295405</v>
+        <v>-0.005312268565315283</v>
       </c>
       <c r="E22">
-        <v>-0.2390697633223404</v>
+        <v>-0.02991616389060068</v>
       </c>
       <c r="F22">
-        <v>0.06254902392632804</v>
+        <v>-0.4612767353196661</v>
       </c>
       <c r="G22">
-        <v>-0.2990865833303611</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.1779106769624379</v>
+      </c>
+      <c r="H22">
+        <v>0.3387272975382426</v>
+      </c>
+      <c r="I22">
+        <v>-0.05953764090104891</v>
+      </c>
+      <c r="J22">
+        <v>0.2100137932216329</v>
+      </c>
+      <c r="K22">
+        <v>0.0351034083615416</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.05245477799725917</v>
+        <v>-0.01130355932495562</v>
       </c>
       <c r="C23">
-        <v>-0.1352289905827695</v>
+        <v>0.1536228645844105</v>
       </c>
       <c r="D23">
-        <v>0.1124383215944785</v>
+        <v>-0.003341420139392973</v>
       </c>
       <c r="E23">
-        <v>-0.2359437112480461</v>
+        <v>-0.03123573566435192</v>
       </c>
       <c r="F23">
-        <v>0.06194318863188842</v>
+        <v>-0.4478781759977296</v>
       </c>
       <c r="G23">
-        <v>-0.2969548134604443</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.1724816372419158</v>
+      </c>
+      <c r="H23">
+        <v>0.3161928559370951</v>
+      </c>
+      <c r="I23">
+        <v>-0.05824964773508656</v>
+      </c>
+      <c r="J23">
+        <v>0.1987805241374922</v>
+      </c>
+      <c r="K23">
+        <v>0.04454070718152016</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.01396572011888903</v>
+        <v>-0.01784384368655526</v>
       </c>
       <c r="C24">
-        <v>-0.0777926302821812</v>
+        <v>0.07717412939927237</v>
       </c>
       <c r="D24">
-        <v>-0.02785861007031001</v>
+        <v>-0.03320239949224703</v>
       </c>
       <c r="E24">
-        <v>-0.02939863343702245</v>
+        <v>0.00568534223955496</v>
       </c>
       <c r="F24">
-        <v>-0.04544729712149858</v>
+        <v>-0.004669761301282699</v>
       </c>
       <c r="G24">
-        <v>0.04630772848439558</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.03007469353691061</v>
+      </c>
+      <c r="H24">
+        <v>-0.04142553312400293</v>
+      </c>
+      <c r="I24">
+        <v>0.0113774362114268</v>
+      </c>
+      <c r="J24">
+        <v>0.01669848952223783</v>
+      </c>
+      <c r="K24">
+        <v>0.04573607348733388</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.01726657219349027</v>
+        <v>-0.02214027470045816</v>
       </c>
       <c r="C25">
-        <v>-0.0699143497335538</v>
+        <v>0.07389498037664613</v>
       </c>
       <c r="D25">
-        <v>-0.005080853475049888</v>
+        <v>-0.02179367847086734</v>
       </c>
       <c r="E25">
-        <v>-0.02709050569431242</v>
+        <v>0.005873115465178937</v>
       </c>
       <c r="F25">
-        <v>-0.0517243801169163</v>
+        <v>-0.008886865345929584</v>
       </c>
       <c r="G25">
-        <v>0.04348716037174063</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.03156248087989446</v>
+      </c>
+      <c r="H25">
+        <v>-0.034238059927237</v>
+      </c>
+      <c r="I25">
+        <v>-0.001670958496487099</v>
+      </c>
+      <c r="J25">
+        <v>0.029109293640671</v>
+      </c>
+      <c r="K25">
+        <v>0.0335412408553541</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.01869768986698727</v>
+        <v>-0.02513169999904407</v>
       </c>
       <c r="C26">
-        <v>-0.05698099556495752</v>
+        <v>0.06504742565919382</v>
       </c>
       <c r="D26">
-        <v>-0.02843408452258313</v>
+        <v>-0.05167521642075566</v>
       </c>
       <c r="E26">
-        <v>-0.04026091111311569</v>
+        <v>0.0001164585525465271</v>
       </c>
       <c r="F26">
-        <v>-0.000432417952908098</v>
+        <v>-0.002355771144422639</v>
       </c>
       <c r="G26">
-        <v>0.02891114261938108</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.004453035830421058</v>
+      </c>
+      <c r="H26">
+        <v>-0.1032356969131083</v>
+      </c>
+      <c r="I26">
+        <v>0.05037340769345092</v>
+      </c>
+      <c r="J26">
+        <v>-0.08059711808292749</v>
+      </c>
+      <c r="K26">
+        <v>0.07944776331290426</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.3498912178838985</v>
+        <v>-0.3183181980840162</v>
       </c>
       <c r="C28">
-        <v>0.1466338735026269</v>
+        <v>-0.1178979218773447</v>
       </c>
       <c r="D28">
-        <v>0.02458686737148306</v>
+        <v>0.02459534369026539</v>
       </c>
       <c r="E28">
-        <v>0.09237540841986641</v>
+        <v>-0.003687636015589906</v>
       </c>
       <c r="F28">
-        <v>0.02775093076895982</v>
+        <v>0.0008560329771034507</v>
       </c>
       <c r="G28">
-        <v>0.02665329923968218</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.1097355801839557</v>
+      </c>
+      <c r="H28">
+        <v>-0.08455978378212191</v>
+      </c>
+      <c r="I28">
+        <v>-0.1932263228038041</v>
+      </c>
+      <c r="J28">
+        <v>-0.05086522700246461</v>
+      </c>
+      <c r="K28">
+        <v>-0.009933636985178219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.01911066871096441</v>
+        <v>-0.01334754656673504</v>
       </c>
       <c r="C29">
-        <v>-0.05334958212472347</v>
+        <v>0.07639037416390124</v>
       </c>
       <c r="D29">
-        <v>-0.009192655116545561</v>
+        <v>-0.03967681113359946</v>
       </c>
       <c r="E29">
-        <v>-0.1132100414657803</v>
+        <v>-0.07454628745598355</v>
       </c>
       <c r="F29">
-        <v>-0.03703358553375884</v>
+        <v>-0.07103791643362838</v>
       </c>
       <c r="G29">
-        <v>0.07141484462964907</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.1437410266310555</v>
+      </c>
+      <c r="H29">
+        <v>-0.2985643078634607</v>
+      </c>
+      <c r="I29">
+        <v>0.03842641184012214</v>
+      </c>
+      <c r="J29">
+        <v>0.1621664024487436</v>
+      </c>
+      <c r="K29">
+        <v>-0.2570454070786445</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.05372776936180807</v>
+        <v>-0.02945462532930013</v>
       </c>
       <c r="C30">
-        <v>-0.1721963594701584</v>
+        <v>0.1530612538075817</v>
       </c>
       <c r="D30">
-        <v>-0.02914600416155396</v>
+        <v>-0.04766614947171587</v>
       </c>
       <c r="E30">
-        <v>-0.08589405168919036</v>
+        <v>-0.003825916867414843</v>
       </c>
       <c r="F30">
-        <v>-0.01234613856626353</v>
+        <v>-0.07274100512432975</v>
       </c>
       <c r="G30">
-        <v>-0.04628301280642038</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01745565874659829</v>
+      </c>
+      <c r="H30">
+        <v>-0.01352529721991852</v>
+      </c>
+      <c r="I30">
+        <v>0.04639022518129587</v>
+      </c>
+      <c r="J30">
+        <v>-0.08016990744832765</v>
+      </c>
+      <c r="K30">
+        <v>0.03046668173568899</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.00670576850623622</v>
+        <v>-0.01367202119586137</v>
       </c>
       <c r="C31">
-        <v>-0.09508453339448923</v>
+        <v>0.09523529633686116</v>
       </c>
       <c r="D31">
-        <v>-0.03382494179246763</v>
+        <v>-0.03540771412819262</v>
       </c>
       <c r="E31">
-        <v>0.0423853099833692</v>
+        <v>0.002970520980152836</v>
       </c>
       <c r="F31">
-        <v>0.01309514003385639</v>
+        <v>0.02026612777119819</v>
       </c>
       <c r="G31">
-        <v>0.004032052258407499</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.04708073343780456</v>
+      </c>
+      <c r="H31">
+        <v>-0.03918803398217525</v>
+      </c>
+      <c r="I31">
+        <v>0.001421614526905804</v>
+      </c>
+      <c r="J31">
+        <v>0.04758312716803982</v>
+      </c>
+      <c r="K31">
+        <v>0.02951589678617009</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.04258155317624272</v>
+        <v>-0.02427538856715798</v>
       </c>
       <c r="C32">
-        <v>-0.08224194945070668</v>
+        <v>0.0672979747234267</v>
       </c>
       <c r="D32">
-        <v>0.02423023057297872</v>
+        <v>-0.01576995340087559</v>
       </c>
       <c r="E32">
-        <v>-0.1632850498633287</v>
+        <v>-0.09694063077009907</v>
       </c>
       <c r="F32">
-        <v>0.04000982290990374</v>
+        <v>-0.09639286171579384</v>
       </c>
       <c r="G32">
-        <v>0.01671860979655346</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.02742139639090423</v>
+      </c>
+      <c r="H32">
+        <v>-0.1539550202552865</v>
+      </c>
+      <c r="I32">
+        <v>-0.243482870337635</v>
+      </c>
+      <c r="J32">
+        <v>-0.04082515064491082</v>
+      </c>
+      <c r="K32">
+        <v>-0.1676995708458001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.02126294771721552</v>
+        <v>-0.01782074325563632</v>
       </c>
       <c r="C33">
-        <v>-0.08702432732244314</v>
+        <v>0.1088326595182953</v>
       </c>
       <c r="D33">
-        <v>-0.02942703268573378</v>
+        <v>-0.03212103842618891</v>
       </c>
       <c r="E33">
-        <v>-0.05376828165099894</v>
+        <v>-0.005735955954752766</v>
       </c>
       <c r="F33">
-        <v>-0.01685593507274025</v>
+        <v>-0.03654650780950258</v>
       </c>
       <c r="G33">
-        <v>0.02897067885469167</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.03147547234732927</v>
+      </c>
+      <c r="H33">
+        <v>-0.06259788683319011</v>
+      </c>
+      <c r="I33">
+        <v>-0.01214622568222274</v>
+      </c>
+      <c r="J33">
+        <v>0.002689207468202914</v>
+      </c>
+      <c r="K33">
+        <v>0.02339204509140871</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.009109488957477662</v>
+        <v>-0.01656108513950016</v>
       </c>
       <c r="C34">
-        <v>-0.05601884406171164</v>
+        <v>0.05472840049041196</v>
       </c>
       <c r="D34">
-        <v>-0.009760684846602691</v>
+        <v>-0.01638743972301037</v>
       </c>
       <c r="E34">
-        <v>-0.03443731623930634</v>
+        <v>-0.003282479017155421</v>
       </c>
       <c r="F34">
-        <v>-0.02033709105095366</v>
+        <v>-0.002396500660234605</v>
       </c>
       <c r="G34">
-        <v>0.03610761004918742</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.02615655111353517</v>
+      </c>
+      <c r="H34">
+        <v>-0.009160158481459107</v>
+      </c>
+      <c r="I34">
+        <v>0.002684145403114575</v>
+      </c>
+      <c r="J34">
+        <v>0.01479789797521383</v>
+      </c>
+      <c r="K34">
+        <v>0.03871855009870594</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.003680743878236798</v>
+        <v>-0.008062617932223331</v>
       </c>
       <c r="C35">
-        <v>-0.01097844714952707</v>
+        <v>0.03608169649469645</v>
       </c>
       <c r="D35">
-        <v>0.001535403756813816</v>
+        <v>-0.01437057664614906</v>
       </c>
       <c r="E35">
-        <v>-0.02271510720638725</v>
+        <v>-0.01851647401933714</v>
       </c>
       <c r="F35">
-        <v>-0.01241722931838553</v>
+        <v>-0.0261051236910639</v>
       </c>
       <c r="G35">
-        <v>0.01440893753574294</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.05596858265551377</v>
+      </c>
+      <c r="H35">
+        <v>-0.150827222328916</v>
+      </c>
+      <c r="I35">
+        <v>-0.006104787960940528</v>
+      </c>
+      <c r="J35">
+        <v>0.1378015607378401</v>
+      </c>
+      <c r="K35">
+        <v>-0.1289907369243583</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.01446303134639894</v>
+        <v>-0.01540009381720597</v>
       </c>
       <c r="C36">
-        <v>-0.04911123646476578</v>
+        <v>0.05094468915618307</v>
       </c>
       <c r="D36">
-        <v>-0.0325965726046196</v>
+        <v>-0.03950910510581777</v>
       </c>
       <c r="E36">
-        <v>-0.03643710495240417</v>
+        <v>-0.004502884908446972</v>
       </c>
       <c r="F36">
-        <v>-0.006323446419849932</v>
+        <v>-0.01738309648589845</v>
       </c>
       <c r="G36">
-        <v>0.02045200799540015</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.0109685648679535</v>
+      </c>
+      <c r="H36">
+        <v>-0.06762587160976538</v>
+      </c>
+      <c r="I36">
+        <v>0.01902599132266625</v>
+      </c>
+      <c r="J36">
+        <v>-0.03191962369918551</v>
+      </c>
+      <c r="K36">
+        <v>0.05961804817306768</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.02552678984054314</v>
+        <v>-0.01381960969138621</v>
       </c>
       <c r="C38">
-        <v>-0.04626495152047021</v>
+        <v>0.06287926100711147</v>
       </c>
       <c r="D38">
-        <v>-0.02453019413191495</v>
+        <v>-0.03103275598780634</v>
       </c>
       <c r="E38">
-        <v>-0.0369215179469421</v>
+        <v>0.02368264369430413</v>
       </c>
       <c r="F38">
-        <v>-0.02275491416481849</v>
+        <v>-0.03630047431664674</v>
       </c>
       <c r="G38">
-        <v>-4.524541211763784e-05</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.007208494423065914</v>
+      </c>
+      <c r="H38">
+        <v>-0.07625867369231056</v>
+      </c>
+      <c r="I38">
+        <v>-0.06056676779451119</v>
+      </c>
+      <c r="J38">
+        <v>0.02432636281831249</v>
+      </c>
+      <c r="K38">
+        <v>0.06474675889275809</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.0154367917659214</v>
+        <v>-0.01843379809428683</v>
       </c>
       <c r="C39">
-        <v>-0.1356195743842721</v>
+        <v>0.1311222677637407</v>
       </c>
       <c r="D39">
-        <v>-0.0178690565609659</v>
+        <v>-0.04411270124061401</v>
       </c>
       <c r="E39">
-        <v>-0.07474544181350429</v>
+        <v>-0.009777566878656543</v>
       </c>
       <c r="F39">
-        <v>-0.04999382927821032</v>
+        <v>-0.02572878991135252</v>
       </c>
       <c r="G39">
-        <v>0.04308946013654905</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.04563458313827599</v>
+      </c>
+      <c r="H39">
+        <v>-0.03650979609029867</v>
+      </c>
+      <c r="I39">
+        <v>0.06038565636718226</v>
+      </c>
+      <c r="J39">
+        <v>-0.007773719112187212</v>
+      </c>
+      <c r="K39">
+        <v>0.05537273858788052</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.0004267460751432586</v>
+        <v>-0.01548605327229124</v>
       </c>
       <c r="C40">
-        <v>-0.03365017911962793</v>
+        <v>0.06199881649520262</v>
       </c>
       <c r="D40">
-        <v>-0.01586882513590305</v>
+        <v>-0.02714309821827622</v>
       </c>
       <c r="E40">
-        <v>-0.1523368256029644</v>
+        <v>-0.06093855431134461</v>
       </c>
       <c r="F40">
-        <v>-0.01968390848096558</v>
+        <v>-0.09888206622687885</v>
       </c>
       <c r="G40">
-        <v>-0.004111322197179298</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.1240875277378996</v>
+      </c>
+      <c r="H40">
+        <v>-0.004568299231440604</v>
+      </c>
+      <c r="I40">
+        <v>-0.07245668466464603</v>
+      </c>
+      <c r="J40">
+        <v>0.2929401270035285</v>
+      </c>
+      <c r="K40">
+        <v>0.0562160485339723</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.009373689125656472</v>
+        <v>-0.02156612987308489</v>
       </c>
       <c r="C41">
-        <v>-0.01970567112592386</v>
+        <v>0.04868467556612869</v>
       </c>
       <c r="D41">
-        <v>0.003509156736047826</v>
+        <v>-0.01011020396542985</v>
       </c>
       <c r="E41">
-        <v>0.009834962851814275</v>
+        <v>0.005491785933138324</v>
       </c>
       <c r="F41">
-        <v>0.006246320948364159</v>
+        <v>0.009812281458761254</v>
       </c>
       <c r="G41">
-        <v>-0.00516334939690421</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.01101704091404527</v>
+      </c>
+      <c r="H41">
+        <v>-0.03972499830042352</v>
+      </c>
+      <c r="I41">
+        <v>-0.03433803442277665</v>
+      </c>
+      <c r="J41">
+        <v>0.05799449739137934</v>
+      </c>
+      <c r="K41">
+        <v>-0.0006267342274529712</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.006665287215284441</v>
+        <v>-0.01731860466363162</v>
       </c>
       <c r="C43">
-        <v>-0.02211885600917683</v>
+        <v>0.04607036900646493</v>
       </c>
       <c r="D43">
-        <v>-0.006274721049186218</v>
+        <v>-0.02550148882650045</v>
       </c>
       <c r="E43">
-        <v>-0.01149537216426346</v>
+        <v>0.01395442702086361</v>
       </c>
       <c r="F43">
-        <v>-0.02493357145442518</v>
+        <v>-0.006835807213060089</v>
       </c>
       <c r="G43">
-        <v>0.00104691815163513</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.01523032231342972</v>
+      </c>
+      <c r="H43">
+        <v>-0.0542841543080098</v>
+      </c>
+      <c r="I43">
+        <v>-0.005186397528332299</v>
+      </c>
+      <c r="J43">
+        <v>0.04791044225110088</v>
+      </c>
+      <c r="K43">
+        <v>0.001005475930483962</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.03100532575536845</v>
+        <v>-0.01147427039826927</v>
       </c>
       <c r="C44">
-        <v>-0.08007893851661162</v>
+        <v>0.09073827947184555</v>
       </c>
       <c r="D44">
-        <v>0.01000902827456825</v>
+        <v>-0.04521860606167048</v>
       </c>
       <c r="E44">
-        <v>-0.1069140233203086</v>
+        <v>-0.006107588108971242</v>
       </c>
       <c r="F44">
-        <v>-0.02693744277378909</v>
+        <v>-0.09123651212392182</v>
       </c>
       <c r="G44">
-        <v>-0.02795410004744217</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.03009919430087418</v>
+      </c>
+      <c r="H44">
+        <v>-0.03568735829909593</v>
+      </c>
+      <c r="I44">
+        <v>0.06039291735152919</v>
+      </c>
+      <c r="J44">
+        <v>-0.06677798995874661</v>
+      </c>
+      <c r="K44">
+        <v>-0.01123388467066573</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.0106554434091096</v>
+        <v>-0.004185029284337892</v>
       </c>
       <c r="C46">
-        <v>-0.05922928960334335</v>
+        <v>0.06368936950440894</v>
       </c>
       <c r="D46">
-        <v>-0.01919231699676942</v>
+        <v>-0.02145701231247821</v>
       </c>
       <c r="E46">
-        <v>-0.07052346557368568</v>
+        <v>-0.01316382940310699</v>
       </c>
       <c r="F46">
-        <v>-0.02804256299774026</v>
+        <v>-0.01784359366777325</v>
       </c>
       <c r="G46">
-        <v>0.0451090919107175</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.04899565154061659</v>
+      </c>
+      <c r="H46">
+        <v>-0.1153383763008648</v>
+      </c>
+      <c r="I46">
+        <v>0.007668522938692207</v>
+      </c>
+      <c r="J46">
+        <v>0.078528145011525</v>
+      </c>
+      <c r="K46">
+        <v>-0.04317366533511671</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.01460530386225736</v>
+        <v>-0.02340589970551496</v>
       </c>
       <c r="C47">
-        <v>-0.1171369463814869</v>
+        <v>0.09937859124539809</v>
       </c>
       <c r="D47">
-        <v>-0.03361847578321848</v>
+        <v>-0.03774348653784206</v>
       </c>
       <c r="E47">
-        <v>0.05708020865700433</v>
+        <v>-3.688412003734126e-05</v>
       </c>
       <c r="F47">
-        <v>0.02864312457060294</v>
+        <v>0.03542505284112029</v>
       </c>
       <c r="G47">
-        <v>0.04043545137444145</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.01775115392227449</v>
+      </c>
+      <c r="H47">
+        <v>-0.07839290523066805</v>
+      </c>
+      <c r="I47">
+        <v>-0.02862884989808715</v>
+      </c>
+      <c r="J47">
+        <v>0.03365016449353746</v>
+      </c>
+      <c r="K47">
+        <v>0.04115143538354384</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.02073805405366619</v>
+        <v>-0.02231316228469422</v>
       </c>
       <c r="C48">
-        <v>-0.05457301185000863</v>
+        <v>0.05827336615968028</v>
       </c>
       <c r="D48">
-        <v>-0.04859646193045285</v>
+        <v>-0.04988115930078172</v>
       </c>
       <c r="E48">
-        <v>-0.02875085201716995</v>
+        <v>0.0002017164823102615</v>
       </c>
       <c r="F48">
-        <v>-0.01512502880059046</v>
+        <v>-0.01316946048213337</v>
       </c>
       <c r="G48">
-        <v>0.02028655412717576</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.003932207551063095</v>
+      </c>
+      <c r="H48">
+        <v>-0.1050718899556559</v>
+      </c>
+      <c r="I48">
+        <v>0.04041956395619108</v>
+      </c>
+      <c r="J48">
+        <v>-0.0734267849788891</v>
+      </c>
+      <c r="K48">
+        <v>0.08898772441659202</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.008426907377388156</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.01933225087735302</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.000403379286213904</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.01386079276015086</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.02588230725247176</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.02359206739528351</v>
+      </c>
+      <c r="H49">
+        <v>0.01871414886462646</v>
+      </c>
+      <c r="I49">
+        <v>0.03697398492888393</v>
+      </c>
+      <c r="J49">
+        <v>-0.01513627308174856</v>
+      </c>
+      <c r="K49">
+        <v>0.004284114617440351</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.01155565714403223</v>
+        <v>-0.01507111723763783</v>
       </c>
       <c r="C50">
-        <v>-0.09683981369690259</v>
+        <v>0.09091108600720116</v>
       </c>
       <c r="D50">
-        <v>-0.0190786508918663</v>
+        <v>-0.02159567234646804</v>
       </c>
       <c r="E50">
-        <v>0.01781036612541951</v>
+        <v>0.004668859034086332</v>
       </c>
       <c r="F50">
-        <v>0.007627946837121898</v>
+        <v>0.005842231717909162</v>
       </c>
       <c r="G50">
-        <v>-0.01723932366531293</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.03222203878246208</v>
+      </c>
+      <c r="H50">
+        <v>-0.06320508468532139</v>
+      </c>
+      <c r="I50">
+        <v>-0.0466102280764485</v>
+      </c>
+      <c r="J50">
+        <v>0.02997254473730411</v>
+      </c>
+      <c r="K50">
+        <v>0.01380155539104615</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.01339544618228023</v>
+        <v>0.004816094035686899</v>
       </c>
       <c r="C51">
-        <v>-0.0664262475124827</v>
+        <v>0.04307624985800144</v>
       </c>
       <c r="D51">
-        <v>0.02317634526594898</v>
+        <v>-0.0156651424726358</v>
       </c>
       <c r="E51">
-        <v>-0.09739312696841679</v>
+        <v>-0.0233835707124658</v>
       </c>
       <c r="F51">
-        <v>-0.00710683638407847</v>
+        <v>-0.04426489631937255</v>
       </c>
       <c r="G51">
-        <v>-0.03952694635958278</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.01254857297566471</v>
+      </c>
+      <c r="H51">
+        <v>-0.08431376353207634</v>
+      </c>
+      <c r="I51">
+        <v>0.03507300772200855</v>
+      </c>
+      <c r="J51">
+        <v>-0.1099758963103299</v>
+      </c>
+      <c r="K51">
+        <v>0.01756845260118928</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.06069951009855429</v>
+        <v>-0.05956829859376629</v>
       </c>
       <c r="C53">
-        <v>-0.1412301097908222</v>
+        <v>0.1355950383579523</v>
       </c>
       <c r="D53">
-        <v>-0.05305773560605992</v>
+        <v>-0.04633051219669322</v>
       </c>
       <c r="E53">
-        <v>0.104722967388387</v>
+        <v>0.0225578367902248</v>
       </c>
       <c r="F53">
-        <v>-0.03189634495387252</v>
+        <v>0.09433716792488414</v>
       </c>
       <c r="G53">
-        <v>0.01096827578412154</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.05677880386712585</v>
+      </c>
+      <c r="H53">
+        <v>0.006049035405708927</v>
+      </c>
+      <c r="I53">
+        <v>-0.04226273845713536</v>
+      </c>
+      <c r="J53">
+        <v>0.02201850981962642</v>
+      </c>
+      <c r="K53">
+        <v>0.0800797127753894</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.01911362999783057</v>
+        <v>-0.01752418247825632</v>
       </c>
       <c r="C54">
-        <v>-0.05567775914349098</v>
+        <v>0.06963617828755578</v>
       </c>
       <c r="D54">
-        <v>0.00985033371472421</v>
+        <v>-0.002028896462728135</v>
       </c>
       <c r="E54">
-        <v>-0.01364830564118368</v>
+        <v>-0.0004845667039525055</v>
       </c>
       <c r="F54">
-        <v>-0.03519979437760452</v>
+        <v>-0.0007229250190758861</v>
       </c>
       <c r="G54">
-        <v>0.00374442620623784</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.02835182486369354</v>
+      </c>
+      <c r="H54">
+        <v>-0.06635600357363815</v>
+      </c>
+      <c r="I54">
+        <v>0.02215449187859696</v>
+      </c>
+      <c r="J54">
+        <v>0.02752904317901963</v>
+      </c>
+      <c r="K54">
+        <v>-0.01864849143224307</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.04319615709010115</v>
+        <v>-0.03485027499940382</v>
       </c>
       <c r="C55">
-        <v>-0.102971691482639</v>
+        <v>0.09549279664411812</v>
       </c>
       <c r="D55">
-        <v>-0.05947051169410746</v>
+        <v>-0.04849374763283578</v>
       </c>
       <c r="E55">
-        <v>0.06473273678832683</v>
+        <v>0.01997638292747302</v>
       </c>
       <c r="F55">
-        <v>-0.0005824977483915472</v>
+        <v>0.07256188064098749</v>
       </c>
       <c r="G55">
-        <v>0.03418477592639575</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.02640275771269809</v>
+      </c>
+      <c r="H55">
+        <v>0.004099815596720081</v>
+      </c>
+      <c r="I55">
+        <v>0.01285471901877407</v>
+      </c>
+      <c r="J55">
+        <v>0.01555502821190841</v>
+      </c>
+      <c r="K55">
+        <v>0.05644817699205076</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.05061978515868888</v>
+        <v>-0.04467894619211078</v>
       </c>
       <c r="C56">
-        <v>-0.1798091425606701</v>
+        <v>0.1657661884057596</v>
       </c>
       <c r="D56">
-        <v>-0.05933747128905224</v>
+        <v>-0.0678997229153659</v>
       </c>
       <c r="E56">
-        <v>0.1457713622937006</v>
+        <v>0.01859043625041371</v>
       </c>
       <c r="F56">
-        <v>0.0172462581621653</v>
+        <v>0.1411093513413446</v>
       </c>
       <c r="G56">
-        <v>0.005422134454774195</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.1120110150693655</v>
+      </c>
+      <c r="H56">
+        <v>0.02585835484879136</v>
+      </c>
+      <c r="I56">
+        <v>-0.03124695149462252</v>
+      </c>
+      <c r="J56">
+        <v>-0.01591773703592949</v>
+      </c>
+      <c r="K56">
+        <v>0.05218292629653145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.05483313571684095</v>
+        <v>-0.02162055810293708</v>
       </c>
       <c r="C58">
-        <v>-0.2213229331385306</v>
+        <v>0.1789205531468438</v>
       </c>
       <c r="D58">
-        <v>0.1301508121868234</v>
+        <v>-0.01104162877590199</v>
       </c>
       <c r="E58">
-        <v>-0.2080866342106459</v>
+        <v>-0.05001223109441368</v>
       </c>
       <c r="F58">
-        <v>0.0224489184197814</v>
+        <v>-0.3079206550414553</v>
       </c>
       <c r="G58">
-        <v>-0.3881751502673888</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1825977685507852</v>
+      </c>
+      <c r="H58">
+        <v>0.01219047197345744</v>
+      </c>
+      <c r="I58">
+        <v>0.001318238721417407</v>
+      </c>
+      <c r="J58">
+        <v>-0.3924433349467512</v>
+      </c>
+      <c r="K58">
+        <v>-0.247532882690111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.2778032286389107</v>
+        <v>-0.2862631249764918</v>
       </c>
       <c r="C59">
-        <v>0.04964824359487734</v>
+        <v>-0.04986548107313266</v>
       </c>
       <c r="D59">
-        <v>0.03618521640351535</v>
+        <v>0.002689669865344814</v>
       </c>
       <c r="E59">
-        <v>-0.02060427062559879</v>
+        <v>-0.02832629210732785</v>
       </c>
       <c r="F59">
-        <v>0.0483236663982573</v>
+        <v>-0.02464991234128665</v>
       </c>
       <c r="G59">
-        <v>0.04846766866995186</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.01111983605270363</v>
+      </c>
+      <c r="H59">
+        <v>0.02088339541400485</v>
+      </c>
+      <c r="I59">
+        <v>-0.03604623023282588</v>
+      </c>
+      <c r="J59">
+        <v>0.01142567480559147</v>
+      </c>
+      <c r="K59">
+        <v>0.0260046348868369</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.1319456669536907</v>
+        <v>-0.1519997323688722</v>
       </c>
       <c r="C60">
-        <v>-0.1206409521791876</v>
+        <v>0.1440507107959965</v>
       </c>
       <c r="D60">
-        <v>-0.04498937510520009</v>
+        <v>-0.03407544401949465</v>
       </c>
       <c r="E60">
-        <v>-0.06952498273615207</v>
+        <v>-0.03593762252278875</v>
       </c>
       <c r="F60">
-        <v>-0.118974843672264</v>
+        <v>0.06418514976216806</v>
       </c>
       <c r="G60">
-        <v>0.2881109416645641</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.2735184749491945</v>
+      </c>
+      <c r="H60">
+        <v>0.2386547519935493</v>
+      </c>
+      <c r="I60">
+        <v>0.03181479888702714</v>
+      </c>
+      <c r="J60">
+        <v>-0.01879471474249682</v>
+      </c>
+      <c r="K60">
+        <v>-0.09404615606537274</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.01560706581512937</v>
+        <v>-0.0206306423489544</v>
       </c>
       <c r="C61">
-        <v>-0.09614381394279158</v>
+        <v>0.1044071623708942</v>
       </c>
       <c r="D61">
-        <v>-0.03685229145837268</v>
+        <v>-0.04442263095676934</v>
       </c>
       <c r="E61">
-        <v>-0.03571889446550466</v>
+        <v>-0.001678044173829462</v>
       </c>
       <c r="F61">
-        <v>-0.04716137183612858</v>
+        <v>0.01048600359180989</v>
       </c>
       <c r="G61">
-        <v>0.07187287261614318</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.04882228740309014</v>
+      </c>
+      <c r="H61">
+        <v>-0.05116919329214091</v>
+      </c>
+      <c r="I61">
+        <v>0.03055711197285798</v>
+      </c>
+      <c r="J61">
+        <v>0.027176633866139</v>
+      </c>
+      <c r="K61">
+        <v>0.04207595732616658</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.001351444139618374</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.005399367621085369</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.001239786603682553</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-0.003980537063843244</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>-0.01565270863799162</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.02073311393828119</v>
+      </c>
+      <c r="H62">
+        <v>-0.006148669725228874</v>
+      </c>
+      <c r="I62">
+        <v>0.007406493961582058</v>
+      </c>
+      <c r="J62">
+        <v>0.006039744315047716</v>
+      </c>
+      <c r="K62">
+        <v>-0.004968887236550824</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.008762488554119225</v>
+        <v>-0.02521628906026946</v>
       </c>
       <c r="C63">
-        <v>-0.06514397247836093</v>
+        <v>0.07492500529091461</v>
       </c>
       <c r="D63">
-        <v>-0.01458122279228549</v>
+        <v>-0.04637367024702675</v>
       </c>
       <c r="E63">
-        <v>-0.02128672690161497</v>
+        <v>-0.004744465035901018</v>
       </c>
       <c r="F63">
-        <v>-0.03419903746310048</v>
+        <v>0.0002563669798253179</v>
       </c>
       <c r="G63">
-        <v>0.03046692372969893</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.02366995368119781</v>
+      </c>
+      <c r="H63">
+        <v>-0.06051781294184055</v>
+      </c>
+      <c r="I63">
+        <v>0.01100317838417879</v>
+      </c>
+      <c r="J63">
+        <v>0.02307249996334231</v>
+      </c>
+      <c r="K63">
+        <v>0.05431192765614246</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.01952964109916893</v>
+        <v>-0.02017615639704458</v>
       </c>
       <c r="C64">
-        <v>-0.1019367197219786</v>
+        <v>0.09965332857594801</v>
       </c>
       <c r="D64">
-        <v>-0.06162518346702331</v>
+        <v>-0.02924150368682961</v>
       </c>
       <c r="E64">
-        <v>-0.03449026392891259</v>
+        <v>0.02169554055339007</v>
       </c>
       <c r="F64">
-        <v>-0.02185939321271677</v>
+        <v>-0.05094516467146409</v>
       </c>
       <c r="G64">
-        <v>0.01427445331870839</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.01833201311227876</v>
+      </c>
+      <c r="H64">
+        <v>-0.02690240887175674</v>
+      </c>
+      <c r="I64">
+        <v>0.01931169407588343</v>
+      </c>
+      <c r="J64">
+        <v>0.03618611803661231</v>
+      </c>
+      <c r="K64">
+        <v>0.1085505577733444</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.03311240146381341</v>
+        <v>-0.03237901520790726</v>
       </c>
       <c r="C65">
-        <v>-0.05609080114211477</v>
+        <v>0.08404373158177635</v>
       </c>
       <c r="D65">
-        <v>-0.007294763777877848</v>
+        <v>-0.005648452713287084</v>
       </c>
       <c r="E65">
-        <v>-0.1023739230346546</v>
+        <v>0.00489170792537949</v>
       </c>
       <c r="F65">
-        <v>-0.03590658854987829</v>
+        <v>-0.07398378849062674</v>
       </c>
       <c r="G65">
-        <v>0.03136593031418698</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.1220258422630754</v>
+      </c>
+      <c r="H65">
+        <v>0.01323936696508697</v>
+      </c>
+      <c r="I65">
+        <v>0.07827047540086442</v>
+      </c>
+      <c r="J65">
+        <v>-0.06569647208099268</v>
+      </c>
+      <c r="K65">
+        <v>-0.02610952163910043</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.01619951022784536</v>
+        <v>-0.01419240906499468</v>
       </c>
       <c r="C66">
-        <v>-0.1608207957457257</v>
+        <v>0.1628758426620837</v>
       </c>
       <c r="D66">
-        <v>0.009225110710085176</v>
+        <v>-0.03105227305690357</v>
       </c>
       <c r="E66">
-        <v>-0.1157807118374248</v>
+        <v>-0.01907783007921417</v>
       </c>
       <c r="F66">
-        <v>-0.03280889942794508</v>
+        <v>-0.03823518992815229</v>
       </c>
       <c r="G66">
-        <v>0.04977651580084561</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.0394113252065463</v>
+      </c>
+      <c r="H66">
+        <v>-0.04129278038373153</v>
+      </c>
+      <c r="I66">
+        <v>0.0404664219449053</v>
+      </c>
+      <c r="J66">
+        <v>-0.009259277207965289</v>
+      </c>
+      <c r="K66">
+        <v>0.03375935589560009</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.02744280435518641</v>
+        <v>-0.02286729463544417</v>
       </c>
       <c r="C67">
-        <v>-0.03642798568793443</v>
+        <v>0.05487535975213352</v>
       </c>
       <c r="D67">
-        <v>-0.05070894073610391</v>
+        <v>-0.03668635002551292</v>
       </c>
       <c r="E67">
-        <v>0.002051461287824185</v>
+        <v>0.02861906176622701</v>
       </c>
       <c r="F67">
-        <v>-0.02782955616399919</v>
+        <v>-0.001149439709720359</v>
       </c>
       <c r="G67">
-        <v>0.0219203938267463</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.02948115569164452</v>
+      </c>
+      <c r="H67">
+        <v>-0.05499899364055484</v>
+      </c>
+      <c r="I67">
+        <v>-0.05319760330620778</v>
+      </c>
+      <c r="J67">
+        <v>0.03900842476022796</v>
+      </c>
+      <c r="K67">
+        <v>0.04765437615615396</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.2643841118246992</v>
+        <v>-0.2927181296542286</v>
       </c>
       <c r="C68">
-        <v>0.07076649703591868</v>
+        <v>-0.05782523098243141</v>
       </c>
       <c r="D68">
-        <v>0.02080013489469575</v>
+        <v>0.02913156962836439</v>
       </c>
       <c r="E68">
-        <v>-0.000328509272800085</v>
+        <v>-0.01507239080492874</v>
       </c>
       <c r="F68">
-        <v>0.01431582364321606</v>
+        <v>-0.03193654699876088</v>
       </c>
       <c r="G68">
-        <v>-0.0403634266306799</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.02968398581798777</v>
+      </c>
+      <c r="H68">
+        <v>0.011880633956266</v>
+      </c>
+      <c r="I68">
+        <v>-0.05088965914532566</v>
+      </c>
+      <c r="J68">
+        <v>-0.01461737620865265</v>
+      </c>
+      <c r="K68">
+        <v>0.01915221923771333</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.01440223845850127</v>
+        <v>-0.009457355443865504</v>
       </c>
       <c r="C69">
-        <v>-0.1038386180772095</v>
+        <v>0.0775344785142634</v>
       </c>
       <c r="D69">
-        <v>-0.05463097035244387</v>
+        <v>-0.02603446184980246</v>
       </c>
       <c r="E69">
-        <v>0.04001280993136424</v>
+        <v>0.003452883708720657</v>
       </c>
       <c r="F69">
-        <v>-0.00383386158056942</v>
+        <v>0.01872968062341433</v>
       </c>
       <c r="G69">
-        <v>-0.0009117762346610582</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.0002004333598996381</v>
+      </c>
+      <c r="H69">
+        <v>-0.05969661259475346</v>
+      </c>
+      <c r="I69">
+        <v>-0.02075466087893821</v>
+      </c>
+      <c r="J69">
+        <v>0.002359916256140068</v>
+      </c>
+      <c r="K69">
+        <v>0.04921851904363364</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.2760562232667463</v>
+        <v>-0.2748411043111301</v>
       </c>
       <c r="C71">
-        <v>0.08707563474792233</v>
+        <v>-0.08040809718088815</v>
       </c>
       <c r="D71">
-        <v>0.02551118966249576</v>
+        <v>0.01564220819396941</v>
       </c>
       <c r="E71">
-        <v>-0.01281894877595181</v>
+        <v>0.01337175283408128</v>
       </c>
       <c r="F71">
-        <v>-0.01515308171415855</v>
+        <v>-0.04851600099225115</v>
       </c>
       <c r="G71">
-        <v>-0.02986685894896477</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.02484399883432853</v>
+      </c>
+      <c r="H71">
+        <v>-0.04754708936595538</v>
+      </c>
+      <c r="I71">
+        <v>-0.1177281240702744</v>
+      </c>
+      <c r="J71">
+        <v>-0.0608910384388443</v>
+      </c>
+      <c r="K71">
+        <v>0.0528607638904548</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.04547973052014458</v>
+        <v>-0.05679921636004253</v>
       </c>
       <c r="C72">
-        <v>-0.1550187483703436</v>
+        <v>0.1472708709484654</v>
       </c>
       <c r="D72">
-        <v>-0.02434168341371605</v>
+        <v>-0.02295762737529216</v>
       </c>
       <c r="E72">
-        <v>-0.1015350567805078</v>
+        <v>-0.0004444566649897919</v>
       </c>
       <c r="F72">
-        <v>-0.09533680063010615</v>
+        <v>-0.009224128550384417</v>
       </c>
       <c r="G72">
-        <v>0.04128530637652065</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.06223686114797063</v>
+      </c>
+      <c r="H72">
+        <v>0.03256365508549067</v>
+      </c>
+      <c r="I72">
+        <v>0.09794280324824405</v>
+      </c>
+      <c r="J72">
+        <v>-0.04136107370943912</v>
+      </c>
+      <c r="K72">
+        <v>0.004116836238445025</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.09348009259143882</v>
+        <v>-0.1524787601896015</v>
       </c>
       <c r="C73">
-        <v>-0.1474681895231629</v>
+        <v>0.192782529298771</v>
       </c>
       <c r="D73">
-        <v>-0.07399110197978225</v>
+        <v>-0.06336900229030416</v>
       </c>
       <c r="E73">
-        <v>-0.06143037192833141</v>
+        <v>-0.00393238573683797</v>
       </c>
       <c r="F73">
-        <v>-0.1825745786398908</v>
+        <v>0.1496572303589092</v>
       </c>
       <c r="G73">
-        <v>0.3585958179106464</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.4193015140881631</v>
+      </c>
+      <c r="H73">
+        <v>0.3094897098261439</v>
+      </c>
+      <c r="I73">
+        <v>-0.06022083025915868</v>
+      </c>
+      <c r="J73">
+        <v>-0.1086984789490345</v>
+      </c>
+      <c r="K73">
+        <v>-0.0724668685608868</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.02430814903432323</v>
+        <v>-0.03726230388109436</v>
       </c>
       <c r="C74">
-        <v>-0.1060341672973787</v>
+        <v>0.1072163035761858</v>
       </c>
       <c r="D74">
-        <v>-0.06380384710735444</v>
+        <v>-0.03882517537110512</v>
       </c>
       <c r="E74">
-        <v>0.08325604507430712</v>
+        <v>0.02166780561688791</v>
       </c>
       <c r="F74">
-        <v>0.01000311373710944</v>
+        <v>0.07038165269958588</v>
       </c>
       <c r="G74">
-        <v>0.01156447387111421</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.03859779119899069</v>
+      </c>
+      <c r="H74">
+        <v>-0.007341143944496671</v>
+      </c>
+      <c r="I74">
+        <v>0.008386964695808016</v>
+      </c>
+      <c r="J74">
+        <v>-0.006419545463954511</v>
+      </c>
+      <c r="K74">
+        <v>0.07071966756183759</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.08158327160029365</v>
+        <v>-0.06449247561303623</v>
       </c>
       <c r="C75">
-        <v>-0.1779422420302383</v>
+        <v>0.1823043717624596</v>
       </c>
       <c r="D75">
-        <v>-0.09929594184628082</v>
+        <v>-0.07497615252061553</v>
       </c>
       <c r="E75">
-        <v>0.2348718043019251</v>
+        <v>0.109243707746893</v>
       </c>
       <c r="F75">
-        <v>0.02746751581293901</v>
+        <v>0.1715571847281921</v>
       </c>
       <c r="G75">
-        <v>-0.06070624613401644</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1777395752888359</v>
+      </c>
+      <c r="H75">
+        <v>0.01933780708419727</v>
+      </c>
+      <c r="I75">
+        <v>-0.1324339591477325</v>
+      </c>
+      <c r="J75">
+        <v>0.06645281930434233</v>
+      </c>
+      <c r="K75">
+        <v>0.05483016741733315</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.04985190891225991</v>
+        <v>-0.04301819274362878</v>
       </c>
       <c r="C76">
-        <v>-0.1285593738201034</v>
+        <v>0.1342024254194184</v>
       </c>
       <c r="D76">
-        <v>-0.06144238493724494</v>
+        <v>-0.06258121464655082</v>
       </c>
       <c r="E76">
-        <v>0.1021734456495559</v>
+        <v>0.03632765064568942</v>
       </c>
       <c r="F76">
-        <v>0.001476285117852847</v>
+        <v>0.1032088979144542</v>
       </c>
       <c r="G76">
-        <v>0.05677988472656973</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.04388762224223249</v>
+      </c>
+      <c r="H76">
+        <v>0.0004014983668578795</v>
+      </c>
+      <c r="I76">
+        <v>0.000953428572948793</v>
+      </c>
+      <c r="J76">
+        <v>0.03364216708781898</v>
+      </c>
+      <c r="K76">
+        <v>0.1438722101997397</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.08691064403716796</v>
+        <v>-0.04822940996308528</v>
       </c>
       <c r="C77">
-        <v>-0.2128571712443439</v>
+        <v>0.30753656615057</v>
       </c>
       <c r="D77">
-        <v>0.8715123845558865</v>
+        <v>0.9363700051715454</v>
       </c>
       <c r="E77">
-        <v>0.2981957090553201</v>
+        <v>0.06409818887646043</v>
       </c>
       <c r="F77">
-        <v>-0.1821646200871433</v>
+        <v>0.06668894733661525</v>
       </c>
       <c r="G77">
-        <v>0.08002919876518561</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.002100347595877262</v>
+      </c>
+      <c r="H77">
+        <v>-0.05249765780014188</v>
+      </c>
+      <c r="I77">
+        <v>0.001735866840082795</v>
+      </c>
+      <c r="J77">
+        <v>0.005357276633584956</v>
+      </c>
+      <c r="K77">
+        <v>0.006067098983729423</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.05959434993816369</v>
+        <v>-0.03766773517321854</v>
       </c>
       <c r="C78">
-        <v>-0.1681328431721333</v>
+        <v>0.1289617837349731</v>
       </c>
       <c r="D78">
-        <v>-0.05261391890284169</v>
+        <v>-0.08454843536619089</v>
       </c>
       <c r="E78">
-        <v>-0.03044983243136878</v>
+        <v>-0.03004486363666324</v>
       </c>
       <c r="F78">
-        <v>0.1644321643990546</v>
+        <v>0.03287622871390398</v>
       </c>
       <c r="G78">
-        <v>-0.02362648935262034</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.1194088306306847</v>
+      </c>
+      <c r="H78">
+        <v>-0.07571789730472088</v>
+      </c>
+      <c r="I78">
+        <v>0.1772918051106928</v>
+      </c>
+      <c r="J78">
+        <v>-0.4555661669214387</v>
+      </c>
+      <c r="K78">
+        <v>0.01364966213228138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.0600064743750405</v>
+        <v>-0.05898188705944843</v>
       </c>
       <c r="C79">
-        <v>-0.2149115150406226</v>
+        <v>0.1659022582737389</v>
       </c>
       <c r="D79">
-        <v>-0.1168946313460983</v>
+        <v>-0.05782538213795974</v>
       </c>
       <c r="E79">
-        <v>0.2222889632036797</v>
+        <v>0.03342842859136167</v>
       </c>
       <c r="F79">
-        <v>0.1286051388607755</v>
+        <v>0.1516459123864873</v>
       </c>
       <c r="G79">
-        <v>-0.0347476071561586</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>-0.2134043493334985</v>
+      </c>
+      <c r="H79">
+        <v>-0.01174938843341545</v>
+      </c>
+      <c r="I79">
+        <v>-0.08370491149377154</v>
+      </c>
+      <c r="J79">
+        <v>-0.02957070152814949</v>
+      </c>
+      <c r="K79">
+        <v>0.05034148815663774</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.02144998440209657</v>
+        <v>-0.02146719838373288</v>
       </c>
       <c r="C80">
-        <v>-0.05972542403813626</v>
+        <v>0.0573542079414642</v>
       </c>
       <c r="D80">
-        <v>-0.04773967092705365</v>
+        <v>-0.03903476196905643</v>
       </c>
       <c r="E80">
-        <v>0.006301208811977427</v>
+        <v>-0.05270790197508669</v>
       </c>
       <c r="F80">
-        <v>0.009350152869816239</v>
+        <v>-0.008990645056015833</v>
       </c>
       <c r="G80">
-        <v>0.0261005100384444</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.03975256370996084</v>
+      </c>
+      <c r="H80">
+        <v>0.03532852385740406</v>
+      </c>
+      <c r="I80">
+        <v>-0.06136925108755568</v>
+      </c>
+      <c r="J80">
+        <v>0.08575175526667748</v>
+      </c>
+      <c r="K80">
+        <v>0.05253848082586212</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.02300655373886149</v>
+        <v>-0.01736073972648736</v>
       </c>
       <c r="C81">
-        <v>-0.1157365172237115</v>
+        <v>0.1133909347556544</v>
       </c>
       <c r="D81">
-        <v>-0.07879500023489883</v>
+        <v>-0.04396556621850043</v>
       </c>
       <c r="E81">
-        <v>0.1703320522677628</v>
+        <v>0.02350554569192829</v>
       </c>
       <c r="F81">
-        <v>0.02859578106854973</v>
+        <v>0.09409574821175018</v>
       </c>
       <c r="G81">
-        <v>0.01688372025689658</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.1053916851242175</v>
+      </c>
+      <c r="H81">
+        <v>-0.05549073462912633</v>
+      </c>
+      <c r="I81">
+        <v>-0.05785237705822099</v>
+      </c>
+      <c r="J81">
+        <v>0.03068262843908032</v>
+      </c>
+      <c r="K81">
+        <v>0.1016789350380866</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.05124929484513772</v>
+        <v>-0.04802567782412318</v>
       </c>
       <c r="C82">
-        <v>-0.1226781838358146</v>
+        <v>0.118355539929657</v>
       </c>
       <c r="D82">
-        <v>-0.08863003576596537</v>
+        <v>-0.0628754633112434</v>
       </c>
       <c r="E82">
-        <v>0.114779968730172</v>
+        <v>0.02683291042510354</v>
       </c>
       <c r="F82">
-        <v>-0.01307148708698038</v>
+        <v>0.1028536757204192</v>
       </c>
       <c r="G82">
-        <v>0.0483121804219755</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.06484891821768762</v>
+      </c>
+      <c r="H82">
+        <v>-0.01764431722267532</v>
+      </c>
+      <c r="I82">
+        <v>-0.02365865061273973</v>
+      </c>
+      <c r="J82">
+        <v>0.01283642051082008</v>
+      </c>
+      <c r="K82">
+        <v>0.1174383617794317</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.00421729064498998</v>
+        <v>0.001792427896876988</v>
       </c>
       <c r="C83">
-        <v>-0.04045782263593973</v>
+        <v>0.001319594511012736</v>
       </c>
       <c r="D83">
-        <v>0.1917146130554701</v>
+        <v>0.05901589999191109</v>
       </c>
       <c r="E83">
-        <v>-0.1043245830340639</v>
+        <v>-0.9353233505669863</v>
       </c>
       <c r="F83">
-        <v>0.8323595350524412</v>
+        <v>0.1959372761429088</v>
       </c>
       <c r="G83">
-        <v>0.3740709936021503</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.1228857310867681</v>
+      </c>
+      <c r="H83">
+        <v>0.08586878773933307</v>
+      </c>
+      <c r="I83">
+        <v>0.04592363881481049</v>
+      </c>
+      <c r="J83">
+        <v>0.01966166517106167</v>
+      </c>
+      <c r="K83">
+        <v>0.09091294401517144</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.003179314269561041</v>
+        <v>1.467538845664263e-05</v>
       </c>
       <c r="C84">
-        <v>-0.04113060209128695</v>
+        <v>0.03916915284929767</v>
       </c>
       <c r="D84">
-        <v>-0.01256955406957981</v>
+        <v>-0.05747581710822128</v>
       </c>
       <c r="E84">
-        <v>-0.08089853300277519</v>
+        <v>0.005573304280153002</v>
       </c>
       <c r="F84">
-        <v>-0.01909302436024216</v>
+        <v>-0.0956360798944518</v>
       </c>
       <c r="G84">
-        <v>-0.1472372725154695</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.05253505380284187</v>
+      </c>
+      <c r="H84">
+        <v>-0.07160649593978113</v>
+      </c>
+      <c r="I84">
+        <v>0.09137910328488726</v>
+      </c>
+      <c r="J84">
+        <v>0.06470836977702266</v>
+      </c>
+      <c r="K84">
+        <v>0.0654307068531334</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.04780346197653668</v>
+        <v>-0.03244544245702979</v>
       </c>
       <c r="C85">
-        <v>-0.1554300557981616</v>
+        <v>0.1324113265722578</v>
       </c>
       <c r="D85">
-        <v>-0.09538579513450546</v>
+        <v>-0.07070947629815295</v>
       </c>
       <c r="E85">
-        <v>0.2094933669478628</v>
+        <v>0.05357845791966896</v>
       </c>
       <c r="F85">
-        <v>0.06586129115325587</v>
+        <v>0.1829567493159182</v>
       </c>
       <c r="G85">
-        <v>-0.01135405189082755</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1414544271525822</v>
+      </c>
+      <c r="H85">
+        <v>0.00766840870298392</v>
+      </c>
+      <c r="I85">
+        <v>-0.08481127183832059</v>
+      </c>
+      <c r="J85">
+        <v>0.05368214155224199</v>
+      </c>
+      <c r="K85">
+        <v>0.1568933840150522</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.03340384427527537</v>
+        <v>-0.0158479161628423</v>
       </c>
       <c r="C86">
-        <v>-0.05248089055730144</v>
+        <v>0.07305552447781889</v>
       </c>
       <c r="D86">
-        <v>0.05676113987110873</v>
+        <v>-0.02003643999542568</v>
       </c>
       <c r="E86">
-        <v>-0.05568426108032118</v>
+        <v>-0.01503528034131133</v>
       </c>
       <c r="F86">
-        <v>-0.0447406532608201</v>
+        <v>-0.06761569515221409</v>
       </c>
       <c r="G86">
-        <v>-0.02634408262502233</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.0878945628268253</v>
+      </c>
+      <c r="H86">
+        <v>-0.05348470119369277</v>
+      </c>
+      <c r="I86">
+        <v>-0.123387097169936</v>
+      </c>
+      <c r="J86">
+        <v>-0.1518217294762879</v>
+      </c>
+      <c r="K86">
+        <v>-0.01648923513789479</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.06567605188183509</v>
+        <v>-0.02490675057854008</v>
       </c>
       <c r="C87">
-        <v>-0.134028313506613</v>
+        <v>0.1268682998646977</v>
       </c>
       <c r="D87">
-        <v>0.007162625929043892</v>
+        <v>-0.004388482090909011</v>
       </c>
       <c r="E87">
-        <v>-0.1200984563031582</v>
+        <v>-0.01572606076580077</v>
       </c>
       <c r="F87">
-        <v>0.006482622659008121</v>
+        <v>-0.0862910421416774</v>
       </c>
       <c r="G87">
-        <v>-0.01530008752036232</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.01587520037048782</v>
+      </c>
+      <c r="H87">
+        <v>-0.01478429292651025</v>
+      </c>
+      <c r="I87">
+        <v>0.1251114256096756</v>
+      </c>
+      <c r="J87">
+        <v>-0.06958952016228644</v>
+      </c>
+      <c r="K87">
+        <v>0.07345026314751883</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.01660139731427515</v>
+        <v>-0.038346584599054</v>
       </c>
       <c r="C88">
-        <v>-0.0640055012000661</v>
+        <v>0.08007065482654087</v>
       </c>
       <c r="D88">
-        <v>-0.05704855550441939</v>
+        <v>-0.03824090523232756</v>
       </c>
       <c r="E88">
-        <v>0.03805131867125305</v>
+        <v>0.01599029518688553</v>
       </c>
       <c r="F88">
-        <v>-0.0381747744079466</v>
+        <v>0.007911477661085627</v>
       </c>
       <c r="G88">
-        <v>0.02683722555278806</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.02368117257073632</v>
+      </c>
+      <c r="H88">
+        <v>-0.0006383658207310383</v>
+      </c>
+      <c r="I88">
+        <v>-0.02557289885326949</v>
+      </c>
+      <c r="J88">
+        <v>0.09334275911020244</v>
+      </c>
+      <c r="K88">
+        <v>0.08382350740622241</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.3911469808848064</v>
+        <v>-0.3930606196384037</v>
       </c>
       <c r="C89">
-        <v>0.1269841555314792</v>
+        <v>-0.115223867794675</v>
       </c>
       <c r="D89">
-        <v>-0.1051852529574682</v>
+        <v>0.02033175166797386</v>
       </c>
       <c r="E89">
-        <v>-0.04585739112860289</v>
+        <v>0.01016165587562611</v>
       </c>
       <c r="F89">
-        <v>0.06459755447441383</v>
+        <v>-0.06802118776257451</v>
       </c>
       <c r="G89">
-        <v>-0.05147168834834596</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.02631686290307337</v>
+      </c>
+      <c r="H89">
+        <v>0.01410172803488723</v>
+      </c>
+      <c r="I89">
+        <v>0.7352937354947862</v>
+      </c>
+      <c r="J89">
+        <v>0.1317382094080032</v>
+      </c>
+      <c r="K89">
+        <v>0.04087093515342357</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.291019048123241</v>
+        <v>-0.311681949404181</v>
       </c>
       <c r="C90">
-        <v>0.05909006992306851</v>
+        <v>-0.07330229854757636</v>
       </c>
       <c r="D90">
-        <v>0.006299989187059269</v>
+        <v>0.008388532295529333</v>
       </c>
       <c r="E90">
-        <v>-0.03647409209045991</v>
+        <v>-0.02659308289812085</v>
       </c>
       <c r="F90">
-        <v>0.04566738953762295</v>
+        <v>-0.01997375349080899</v>
       </c>
       <c r="G90">
-        <v>0.02235515087096323</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.01599007279297905</v>
+      </c>
+      <c r="H90">
+        <v>-0.01181282014272526</v>
+      </c>
+      <c r="I90">
+        <v>-0.09062097113039522</v>
+      </c>
+      <c r="J90">
+        <v>-0.02996708709134075</v>
+      </c>
+      <c r="K90">
+        <v>-0.001036519660292676</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.04824407392678748</v>
+        <v>-0.05342255019838025</v>
       </c>
       <c r="C91">
-        <v>-0.121673449394129</v>
+        <v>0.1075097057945376</v>
       </c>
       <c r="D91">
-        <v>-0.04817212521450788</v>
+        <v>-0.03573232715500812</v>
       </c>
       <c r="E91">
-        <v>0.1224526669368894</v>
+        <v>-0.005629964944597525</v>
       </c>
       <c r="F91">
-        <v>0.03630747492395083</v>
+        <v>0.09673632980208678</v>
       </c>
       <c r="G91">
-        <v>-0.0002542709466034892</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.07738995627878097</v>
+      </c>
+      <c r="H91">
+        <v>0.009758551589333945</v>
+      </c>
+      <c r="I91">
+        <v>-0.01119915912319767</v>
+      </c>
+      <c r="J91">
+        <v>0.05098688522217312</v>
+      </c>
+      <c r="K91">
+        <v>0.04901257355552478</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.3677509211342734</v>
+        <v>-0.3522964708787226</v>
       </c>
       <c r="C92">
-        <v>0.1535914333607336</v>
+        <v>-0.1352968054893217</v>
       </c>
       <c r="D92">
-        <v>0.01624926905305004</v>
+        <v>0.04192323027084428</v>
       </c>
       <c r="E92">
-        <v>-0.0115363535706244</v>
+        <v>0.02818919218010712</v>
       </c>
       <c r="F92">
-        <v>-0.08983224753065018</v>
+        <v>-0.06963128732773533</v>
       </c>
       <c r="G92">
-        <v>-0.04798387090621069</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.0283364558928037</v>
+      </c>
+      <c r="H92">
+        <v>-0.08305543515173548</v>
+      </c>
+      <c r="I92">
+        <v>-0.1682767817149868</v>
+      </c>
+      <c r="J92">
+        <v>-0.01660761858362693</v>
+      </c>
+      <c r="K92">
+        <v>-0.06273580238619807</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.2927490578233662</v>
+        <v>-0.3081636930692483</v>
       </c>
       <c r="C93">
-        <v>0.1033911117415642</v>
+        <v>-0.11362359537291</v>
       </c>
       <c r="D93">
-        <v>-0.02340198118593862</v>
+        <v>-0.004673701526225966</v>
       </c>
       <c r="E93">
-        <v>-0.02959587235486809</v>
+        <v>-0.008241543690656345</v>
       </c>
       <c r="F93">
-        <v>0.0301814793903455</v>
+        <v>-0.02608853310877507</v>
       </c>
       <c r="G93">
-        <v>-0.0505157764476415</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.05508333601149154</v>
+      </c>
+      <c r="H93">
+        <v>-0.03595568747137819</v>
+      </c>
+      <c r="I93">
+        <v>-0.1116595187718405</v>
+      </c>
+      <c r="J93">
+        <v>-0.02138290587738495</v>
+      </c>
+      <c r="K93">
+        <v>0.0377159421019297</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.09457876014077944</v>
+        <v>-0.07888258488867425</v>
       </c>
       <c r="C94">
-        <v>-0.2237420513468213</v>
+        <v>0.1820603617431517</v>
       </c>
       <c r="D94">
-        <v>-0.158378068255409</v>
+        <v>-0.08789450419500995</v>
       </c>
       <c r="E94">
-        <v>0.3798211193083801</v>
+        <v>0.09645900666005959</v>
       </c>
       <c r="F94">
-        <v>0.1672545418516377</v>
+        <v>0.2969156953521163</v>
       </c>
       <c r="G94">
-        <v>-0.3192183073303899</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.4112319856609524</v>
+      </c>
+      <c r="H94">
+        <v>0.1324115688447941</v>
+      </c>
+      <c r="I94">
+        <v>0.1435124063508605</v>
+      </c>
+      <c r="J94">
+        <v>0.2603997192010327</v>
+      </c>
+      <c r="K94">
+        <v>-0.5721295988864155</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.02619889756498529</v>
+        <v>-0.03743238069861191</v>
       </c>
       <c r="C95">
-        <v>-0.07229673663521831</v>
+        <v>0.1201693934255482</v>
       </c>
       <c r="D95">
-        <v>-0.02047686501379916</v>
+        <v>-0.03654684421247964</v>
       </c>
       <c r="E95">
-        <v>-0.008890934172653103</v>
+        <v>0.04198034027755863</v>
       </c>
       <c r="F95">
-        <v>-0.07747945807299096</v>
+        <v>0.001118280415916506</v>
       </c>
       <c r="G95">
-        <v>0.1813165261563679</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.1262709589502191</v>
+      </c>
+      <c r="H95">
+        <v>-0.06757667288040707</v>
+      </c>
+      <c r="I95">
+        <v>0.1162149158531803</v>
+      </c>
+      <c r="J95">
+        <v>0.1784598665329946</v>
+      </c>
+      <c r="K95">
+        <v>0.3296220055390022</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.009926504286517283</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.01885606097394938</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.01971258379165551</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>0.02771217317328164</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>-0.0316073079339989</v>
       </c>
       <c r="G97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.04273316236780666</v>
+      </c>
+      <c r="H97">
+        <v>-0.002318195364652679</v>
+      </c>
+      <c r="I97">
+        <v>0.02809794767476196</v>
+      </c>
+      <c r="J97">
+        <v>-0.008269807601817588</v>
+      </c>
+      <c r="K97">
+        <v>-0.01099197594075467</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.09245656757522121</v>
+        <v>-0.1338659238639321</v>
       </c>
       <c r="C98">
-        <v>-0.1490339190928036</v>
+        <v>0.1610263595056039</v>
       </c>
       <c r="D98">
-        <v>-0.06907498865469748</v>
+        <v>-0.07645897005889203</v>
       </c>
       <c r="E98">
-        <v>-0.08386668039532445</v>
+        <v>-0.004491272689646576</v>
       </c>
       <c r="F98">
-        <v>-0.1137922370611677</v>
+        <v>0.1295014410133326</v>
       </c>
       <c r="G98">
-        <v>0.2205443009902252</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.3597276637742732</v>
+      </c>
+      <c r="H98">
+        <v>0.3261745018362227</v>
+      </c>
+      <c r="I98">
+        <v>-0.07800974183965381</v>
+      </c>
+      <c r="J98">
+        <v>-0.113606801979137</v>
+      </c>
+      <c r="K98">
+        <v>-0.1921008749081447</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>-0.004811433674136771</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.01096646180837289</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.001848514606373783</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.01194879018964885</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>0.01711919975184213</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>-0.002481359011224671</v>
+      </c>
+      <c r="H99">
+        <v>-0.07357446059282119</v>
+      </c>
+      <c r="I99">
+        <v>-0.003813131502672794</v>
+      </c>
+      <c r="J99">
+        <v>-0.03276883352170737</v>
+      </c>
+      <c r="K99">
+        <v>-0.1504309227617066</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.01945303987044887</v>
+        <v>-0.01351463220102715</v>
       </c>
       <c r="C101">
-        <v>-0.05207016074471433</v>
+        <v>0.07523416985437428</v>
       </c>
       <c r="D101">
-        <v>-0.008203063996094563</v>
+        <v>-0.03805406936537271</v>
       </c>
       <c r="E101">
-        <v>-0.1122029206435712</v>
+        <v>-0.07460580990682379</v>
       </c>
       <c r="F101">
-        <v>-0.03799519021956367</v>
+        <v>-0.07109164600786588</v>
       </c>
       <c r="G101">
-        <v>0.07110143100705867</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1437413788436173</v>
+      </c>
+      <c r="H101">
+        <v>-0.2974361901943219</v>
+      </c>
+      <c r="I101">
+        <v>0.03785082066941209</v>
+      </c>
+      <c r="J101">
+        <v>0.1608500889083693</v>
+      </c>
+      <c r="K101">
+        <v>-0.2592907865709286</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>-0.0204845165796511</v>
+        <v>-0.006009997858608572</v>
       </c>
       <c r="C102">
-        <v>-0.07305242398979565</v>
+        <v>0.03400470457279953</v>
       </c>
       <c r="D102">
-        <v>-0.02626887843243615</v>
+        <v>-0.008947741425896053</v>
       </c>
       <c r="E102">
-        <v>0.05715820648952712</v>
+        <v>-0.001448256620208152</v>
       </c>
       <c r="F102">
-        <v>0.03071666772623296</v>
+        <v>0.03010672330694468</v>
       </c>
       <c r="G102">
-        <v>0.006399508158084139</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.03740347420355399</v>
+      </c>
+      <c r="H102">
+        <v>-0.009153492590587328</v>
+      </c>
+      <c r="I102">
+        <v>0.0217555507453687</v>
+      </c>
+      <c r="J102">
+        <v>-0.008290910601756848</v>
+      </c>
+      <c r="K102">
+        <v>-0.01532204469092302</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
